--- a/testcases/excel/bigdata-monjingser.xlsx
+++ b/testcases/excel/bigdata-monjingser.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sample1_test" sheetId="3" r:id="rId1"/>
-    <sheet name="inviteuser_test" sheetId="1" r:id="rId2"/>
-    <sheet name="availableroles_test" sheetId="4" r:id="rId3"/>
+    <sheet name="sample1_t" sheetId="1" r:id="rId1"/>
+    <sheet name="inviteuser_test" sheetId="2" r:id="rId2"/>
+    <sheet name="availableroles_" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>apifixture.TempleteFixture</t>
   </si>
@@ -32,168 +32,60 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Request</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>testCaseId</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <r>
-      <t>Comment: savePreResultInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于保存上次请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>response</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要保存的测试字段值，不同字段用“，”分割；可用正则或完成字段名，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这一行用于登录，不需要的这行可以直接删除</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult()</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>e10adc3949ba59abbe56e057f20f883e</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>http://</t>
-    </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>http://</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>www.moojnn.com</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualResult</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>\"token\":\"*\w+\"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>e10adc3949ba59abbe56e057f20f8</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>needSavePreResults</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>/mojingcsp/authentication</t>
+  </si>
+  <si>
+    <t>Request</t>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>default:post</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Comment: savePreResultInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于保存上次请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>response</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
+      <t>default:post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>需要保存的测试字段值，不同字段用“</t>
-    </r>
+      <t>方法</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -201,17 +93,16 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>;</t>
+      <t>Comment: savePreResultInfo</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>”分割；格式为</t>
+      <t>用于保存上次请求</t>
     </r>
     <r>
       <rPr>
@@ -220,17 +111,16 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>key=value</t>
+      <t>response</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>其中</t>
+      <t>需要保存的测试字段值，不同字段用“，”分割；可用正则或完成字段名，</t>
     </r>
     <r>
       <rPr>
@@ -239,18 +129,55 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>value</t>
+      <t>login</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>可用正则或完整值，</t>
-    </r>
+      <t>这一行用于登录，不需要的这行可以直接删除</t>
+    </r>
+  </si>
+  <si>
+    <t>testCaseId</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>needSavePreResults</t>
+  </si>
+  <si>
+    <t>expectResult()</t>
+  </si>
+  <si>
+    <t>actualResult</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>{"token":"*\w+"}</t>
+  </si>
+  <si>
+    <t>\"token\":\"*\w+\"</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f8</t>
+  </si>
+  <si>
+    <t>auth/inviteUser</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -258,6 +185,96 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
+      <t>Comment: savePreResultInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于保存上次请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要保存的测试字段值，不同字段用“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”分割；格式为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>key=value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可用正则或完整值，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>login</t>
     </r>
     <r>
@@ -265,79 +282,56 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>这一行用于登录，不需要的这行可以直接删除</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"token":"*\w+"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/grant/roleemail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>roleIds</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>projectId</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzj@data-god.com</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>[101]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.188:8000/mojing-server</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mojingcsp/authentication</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>123@123.com</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>\[\{\"success\"\:true</t>
+  </si>
+  <si>
+    <t>http://192.168.1.188:8000/mojing-server/</t>
   </si>
   <si>
     <t>/auth/project/availableRoles</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.188:8000/mojing-server/</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginFixture</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"url":"precsp.moojnn.com/mojingcsp/authentication","username":18015505671,"password":e10adc3949ba59abbe56e057f20f883e}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pre.moojnn.com/mojing-server</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,7 +344,6 @@
       <sz val="24"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -366,14 +359,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -388,10 +381,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -402,34 +401,17 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -541,15 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -586,30 +559,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -622,6 +604,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -629,12 +614,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,25 +628,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -982,22 +979,22 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="35.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="35.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="46.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1017,148 +1014,149 @@
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="18.75">
       <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18">
+      <c r="A7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.25">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12">
+        <v>18352513345</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="18">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A8" s="16">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="14.25">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
         <v>18352513345</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A9" s="16">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13">
-        <v>18352513345</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:H6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="46.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1176,127 +1174,134 @@
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="18">
-      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="18">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A8" s="16">
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="14.25">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13">
-        <v>999</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A9" s="16">
-        <v>2</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="13">
-        <v>101</v>
-      </c>
-      <c r="D9" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3761982</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="14.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId2" tooltip="mailto:123@123.com"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1304,23 +1309,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1336,100 +1341,100 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="18">
+      <c r="A6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="18">
       <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="14.25">
-      <c r="A8" s="16">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.25">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <v>9999</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="14.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="14.25">
+      <c r="A9" s="15">
         <v>2</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <v>9999</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:F6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2" display="zzj@data-god.com"/>
-    <hyperlink ref="B9" r:id="rId3" display="zzj@data-god.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="9999"/>
+    <hyperlink ref="B9" r:id="rId3" display="9999"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/testcases/excel/bigdata-monjingser.xlsx
+++ b/testcases/excel/bigdata-monjingser.xlsx
@@ -319,11 +319,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>{"url":"precsp.moojnn.com/mojingcsp/authentication","username":18015505671,"password":e10adc3949ba59abbe56e057f20f883e}</t>
+    <t>http://pre.moojnn.com/mojing-server</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>http://pre.moojnn.com/mojing-server</t>
+    <t>{"url":"precsp.moojnn.com/mojingcsp/authentication","username":18015505671,"password":"e10adc3949ba59abbe56e057f20f883e"}</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -1219,7 +1219,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
